--- a/static/documents/TagsCMD.xlsx
+++ b/static/documents/TagsCMD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/durbina/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Datakraft\Celepsa\Scada\scada_etl\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D8BDC5B-1880-5E4C-A846-1140407D38B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236ED7C8-6882-4218-B3BF-CD2CEFB80682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19420" xr2:uid="{1C7A0E5B-D87E-2A4E-B6E3-356D2DD096E2}"/>
+    <workbookView xWindow="41550" yWindow="885" windowWidth="28800" windowHeight="16950" xr2:uid="{1C7A0E5B-D87E-2A4E-B6E3-356D2DD096E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2577" uniqueCount="897">
   <si>
     <t>Tag</t>
   </si>
@@ -2234,15 +2223,9 @@
     <t>CPAS01_MU01.P</t>
   </si>
   <si>
-    <t>Potencia Activa</t>
-  </si>
-  <si>
     <t>CPAS01_MU01.Q</t>
   </si>
   <si>
-    <t>Potencia Reactiva</t>
-  </si>
-  <si>
     <t>CPAS01_MU01.URS</t>
   </si>
   <si>
@@ -2681,9 +2664,6 @@
     <t>CPAS00LIT1201.PV</t>
   </si>
   <si>
-    <t>Nivel Entrada Represa</t>
-  </si>
-  <si>
     <t>Cámara de carga 3</t>
   </si>
   <si>
@@ -2706,13 +2686,43 @@
   </si>
   <si>
     <t>CAM</t>
+  </si>
+  <si>
+    <t>EPAS01_JIC2221.PV</t>
+  </si>
+  <si>
+    <t>EPAS01_AGC.BasePoint_Central</t>
+  </si>
+  <si>
+    <t>EPAS02_JIC2221.PV</t>
+  </si>
+  <si>
+    <t>EPAS02_AGC.BasePoint_Central</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_17___G1___MW_x_A</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_17___G1___MVAR_x_A</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_17___G1___KV_x_A</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_13___G2___MW_x_A</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_13___G2___MVAR_x_A</t>
+  </si>
+  <si>
+    <t>TCH_CT_STDOM_13___G2___KV_x_A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2726,6 +2736,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2813,9 +2836,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3151,23 +3174,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11DBE13-BE71-C041-B040-C023BAE0A665}">
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B281" sqref="B281"/>
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
+      <selection activeCell="B419" sqref="B419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3181,16 +3204,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3236,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -3259,7 +3282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3282,7 +3305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -3305,12 +3328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
+      <c r="B7" s="9" t="s">
+        <v>887</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -3328,12 +3351,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="9" t="s">
+        <v>888</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
@@ -3351,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3374,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3397,7 +3420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3420,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3466,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3489,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -3512,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3535,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>47</v>
       </c>
@@ -3558,7 +3581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -3581,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -3604,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3627,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -3650,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3673,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3696,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -3719,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -3742,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -3752,7 +3775,7 @@
       <c r="C26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3765,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>70</v>
       </c>
@@ -3775,7 +3798,7 @@
       <c r="C27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3788,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
@@ -3798,7 +3821,7 @@
       <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -3811,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
@@ -3821,7 +3844,7 @@
       <c r="C29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3834,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>77</v>
       </c>
@@ -3844,7 +3867,7 @@
       <c r="C30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -3857,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -3867,7 +3890,7 @@
       <c r="C31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -3880,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -3890,7 +3913,7 @@
       <c r="C32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3903,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
@@ -3913,7 +3936,7 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3926,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
@@ -3936,7 +3959,7 @@
       <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -3949,7 +3972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -3959,7 +3982,7 @@
       <c r="C35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -3972,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -3982,7 +4005,7 @@
       <c r="C36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3995,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>96</v>
       </c>
@@ -4005,7 +4028,7 @@
       <c r="C37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -4018,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>99</v>
       </c>
@@ -4028,7 +4051,7 @@
       <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -4041,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -4051,7 +4074,7 @@
       <c r="C39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -4064,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>102</v>
       </c>
@@ -4074,7 +4097,7 @@
       <c r="C40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -4087,7 +4110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>103</v>
       </c>
@@ -4097,7 +4120,7 @@
       <c r="C41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -4110,7 +4133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>104</v>
       </c>
@@ -4120,7 +4143,7 @@
       <c r="C42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -4133,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -4143,7 +4166,7 @@
       <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -4156,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -4166,7 +4189,7 @@
       <c r="C44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4179,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>110</v>
       </c>
@@ -4189,7 +4212,7 @@
       <c r="C45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -4202,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -4212,7 +4235,7 @@
       <c r="C46" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -4225,7 +4248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>115</v>
       </c>
@@ -4235,7 +4258,7 @@
       <c r="C47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -4248,7 +4271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>117</v>
       </c>
@@ -4258,7 +4281,7 @@
       <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -4271,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
@@ -4281,7 +4304,7 @@
       <c r="C49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -4294,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -4304,7 +4327,7 @@
       <c r="C50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -4317,7 +4340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>120</v>
       </c>
@@ -4327,7 +4350,7 @@
       <c r="C51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4340,7 +4363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>121</v>
       </c>
@@ -4350,7 +4373,7 @@
       <c r="C52" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -4363,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>123</v>
       </c>
@@ -4373,7 +4396,7 @@
       <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E53" s="1" t="s">
@@ -4386,7 +4409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>124</v>
       </c>
@@ -4396,7 +4419,7 @@
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -4409,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
@@ -4419,7 +4442,7 @@
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -4432,7 +4455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
@@ -4442,7 +4465,7 @@
       <c r="C56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E56" s="1" t="s">
@@ -4455,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -4465,7 +4488,7 @@
       <c r="C57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4478,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -4488,7 +4511,7 @@
       <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -4501,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
@@ -4511,7 +4534,7 @@
       <c r="C59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -4524,7 +4547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -4534,7 +4557,7 @@
       <c r="C60" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -4547,7 +4570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -4557,7 +4580,7 @@
       <c r="C61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -4570,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>138</v>
       </c>
@@ -4580,7 +4603,7 @@
       <c r="C62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -4593,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>139</v>
       </c>
@@ -4603,7 +4626,7 @@
       <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -4616,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>140</v>
       </c>
@@ -4626,7 +4649,7 @@
       <c r="C64" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E64" s="1" t="s">
@@ -4639,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>141</v>
       </c>
@@ -4649,7 +4672,7 @@
       <c r="C65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -4662,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>142</v>
       </c>
@@ -4672,7 +4695,7 @@
       <c r="C66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -4685,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>144</v>
       </c>
@@ -4695,7 +4718,7 @@
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -4708,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>145</v>
       </c>
@@ -4718,7 +4741,7 @@
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -4731,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>146</v>
       </c>
@@ -4741,7 +4764,7 @@
       <c r="C69" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -4754,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>147</v>
       </c>
@@ -4764,7 +4787,7 @@
       <c r="C70" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -4777,7 +4800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>148</v>
       </c>
@@ -4787,7 +4810,7 @@
       <c r="C71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -4800,7 +4823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>149</v>
       </c>
@@ -4810,7 +4833,7 @@
       <c r="C72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -4823,7 +4846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>152</v>
       </c>
@@ -4833,7 +4856,7 @@
       <c r="C73" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -4846,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>154</v>
       </c>
@@ -4856,7 +4879,7 @@
       <c r="C74" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -4869,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>156</v>
       </c>
@@ -4879,7 +4902,7 @@
       <c r="C75" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -4892,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -4902,7 +4925,7 @@
       <c r="C76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -4915,7 +4938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
@@ -4925,7 +4948,7 @@
       <c r="C77" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="1" t="s">
         <v>341</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -4938,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>165</v>
       </c>
@@ -4948,7 +4971,7 @@
       <c r="C78" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -4961,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>168</v>
       </c>
@@ -4971,7 +4994,7 @@
       <c r="C79" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -4984,7 +5007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>170</v>
       </c>
@@ -4994,7 +5017,7 @@
       <c r="C80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -5007,7 +5030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>172</v>
       </c>
@@ -5017,7 +5040,7 @@
       <c r="C81" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="D81" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -5030,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>174</v>
       </c>
@@ -5040,7 +5063,7 @@
       <c r="C82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="D82" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E82" s="1" t="s">
@@ -5053,7 +5076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>176</v>
       </c>
@@ -5063,7 +5086,7 @@
       <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -5076,17 +5099,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>178</v>
+      <c r="B84" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -5099,17 +5122,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>180</v>
+      <c r="B85" s="9" t="s">
+        <v>890</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="D85" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -5122,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>182</v>
       </c>
@@ -5132,7 +5155,7 @@
       <c r="C86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -5145,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>184</v>
       </c>
@@ -5155,7 +5178,7 @@
       <c r="C87" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="D87" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -5168,7 +5191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>186</v>
       </c>
@@ -5178,7 +5201,7 @@
       <c r="C88" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="10" t="s">
+      <c r="D88" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -5191,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>188</v>
       </c>
@@ -5201,7 +5224,7 @@
       <c r="C89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="10" t="s">
+      <c r="D89" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -5214,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>190</v>
       </c>
@@ -5224,7 +5247,7 @@
       <c r="C90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="10" t="s">
+      <c r="D90" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -5237,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>192</v>
       </c>
@@ -5247,7 +5270,7 @@
       <c r="C91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -5260,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>194</v>
       </c>
@@ -5270,7 +5293,7 @@
       <c r="C92" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -5283,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>196</v>
       </c>
@@ -5293,7 +5316,7 @@
       <c r="C93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -5306,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>198</v>
       </c>
@@ -5316,7 +5339,7 @@
       <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="10" t="s">
+      <c r="D94" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -5329,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>200</v>
       </c>
@@ -5339,7 +5362,7 @@
       <c r="C95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="10" t="s">
+      <c r="D95" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -5352,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>202</v>
       </c>
@@ -5362,7 +5385,7 @@
       <c r="C96" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="D96" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -5375,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>204</v>
       </c>
@@ -5385,7 +5408,7 @@
       <c r="C97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="10" t="s">
+      <c r="D97" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -5398,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>206</v>
       </c>
@@ -5408,7 +5431,7 @@
       <c r="C98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="10" t="s">
+      <c r="D98" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -5421,7 +5444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>208</v>
       </c>
@@ -5431,7 +5454,7 @@
       <c r="C99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="10" t="s">
+      <c r="D99" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -5444,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>210</v>
       </c>
@@ -5454,7 +5477,7 @@
       <c r="C100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -5467,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>212</v>
       </c>
@@ -5477,7 +5500,7 @@
       <c r="C101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -5490,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>215</v>
       </c>
@@ -5500,7 +5523,7 @@
       <c r="C102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E102" s="1" t="s">
@@ -5513,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>217</v>
       </c>
@@ -5523,7 +5546,7 @@
       <c r="C103" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -5536,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>219</v>
       </c>
@@ -5546,7 +5569,7 @@
       <c r="C104" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="D104" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E104" s="1" t="s">
@@ -5559,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>221</v>
       </c>
@@ -5569,7 +5592,7 @@
       <c r="C105" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="D105" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -5582,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>223</v>
       </c>
@@ -5592,7 +5615,7 @@
       <c r="C106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="10" t="s">
+      <c r="D106" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E106" s="1" t="s">
@@ -5605,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>225</v>
       </c>
@@ -5615,7 +5638,7 @@
       <c r="C107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D107" s="10" t="s">
+      <c r="D107" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -5628,7 +5651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>227</v>
       </c>
@@ -5638,7 +5661,7 @@
       <c r="C108" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D108" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -5651,7 +5674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>229</v>
       </c>
@@ -5661,7 +5684,7 @@
       <c r="C109" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -5674,7 +5697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>231</v>
       </c>
@@ -5684,7 +5707,7 @@
       <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E110" s="1" t="s">
@@ -5697,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>233</v>
       </c>
@@ -5707,7 +5730,7 @@
       <c r="C111" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="D111" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -5720,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>235</v>
       </c>
@@ -5730,7 +5753,7 @@
       <c r="C112" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E112" s="1" t="s">
@@ -5743,7 +5766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>237</v>
       </c>
@@ -5753,7 +5776,7 @@
       <c r="C113" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5766,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>239</v>
       </c>
@@ -5776,7 +5799,7 @@
       <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="10" t="s">
+      <c r="D114" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E114" s="1" t="s">
@@ -5789,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>241</v>
       </c>
@@ -5799,7 +5822,7 @@
       <c r="C115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D115" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5812,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>243</v>
       </c>
@@ -5822,7 +5845,7 @@
       <c r="C116" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="D116" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5835,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>245</v>
       </c>
@@ -5845,7 +5868,7 @@
       <c r="C117" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="10" t="s">
+      <c r="D117" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E117" s="1" t="s">
@@ -5858,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>247</v>
       </c>
@@ -5868,7 +5891,7 @@
       <c r="C118" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="D118" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E118" s="1" t="s">
@@ -5881,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>248</v>
       </c>
@@ -5891,7 +5914,7 @@
       <c r="C119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D119" s="10" t="s">
+      <c r="D119" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5904,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>249</v>
       </c>
@@ -5914,7 +5937,7 @@
       <c r="C120" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="D120" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E120" s="1" t="s">
@@ -5927,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>250</v>
       </c>
@@ -5937,7 +5960,7 @@
       <c r="C121" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="D121" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -5950,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>251</v>
       </c>
@@ -5960,7 +5983,7 @@
       <c r="C122" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E122" s="1" t="s">
@@ -5973,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>252</v>
       </c>
@@ -5983,7 +6006,7 @@
       <c r="C123" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="10" t="s">
+      <c r="D123" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5996,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>253</v>
       </c>
@@ -6006,7 +6029,7 @@
       <c r="C124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="10" t="s">
+      <c r="D124" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -6019,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>254</v>
       </c>
@@ -6029,7 +6052,7 @@
       <c r="C125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="10" t="s">
+      <c r="D125" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E125" s="1" t="s">
@@ -6042,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>255</v>
       </c>
@@ -6052,7 +6075,7 @@
       <c r="C126" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="10" t="s">
+      <c r="D126" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -6065,7 +6088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>257</v>
       </c>
@@ -6075,7 +6098,7 @@
       <c r="C127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="10" t="s">
+      <c r="D127" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -6088,7 +6111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
@@ -6098,7 +6121,7 @@
       <c r="C128" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D128" s="10" t="s">
+      <c r="D128" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E128" s="1" t="s">
@@ -6111,7 +6134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>261</v>
       </c>
@@ -6121,7 +6144,7 @@
       <c r="C129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="10" t="s">
+      <c r="D129" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -6134,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>263</v>
       </c>
@@ -6144,7 +6167,7 @@
       <c r="C130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E130" s="1" t="s">
@@ -6157,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>265</v>
       </c>
@@ -6167,7 +6190,7 @@
       <c r="C131" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D131" s="10" t="s">
+      <c r="D131" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -6180,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>267</v>
       </c>
@@ -6190,7 +6213,7 @@
       <c r="C132" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D132" s="10" t="s">
+      <c r="D132" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -6203,7 +6226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>268</v>
       </c>
@@ -6213,7 +6236,7 @@
       <c r="C133" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -6226,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>269</v>
       </c>
@@ -6236,7 +6259,7 @@
       <c r="C134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="10" t="s">
+      <c r="D134" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -6249,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>270</v>
       </c>
@@ -6259,7 +6282,7 @@
       <c r="C135" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D135" s="10" t="s">
+      <c r="D135" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -6272,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>271</v>
       </c>
@@ -6282,7 +6305,7 @@
       <c r="C136" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -6295,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>273</v>
       </c>
@@ -6305,7 +6328,7 @@
       <c r="C137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -6318,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -6328,7 +6351,7 @@
       <c r="C138" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D138" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -6341,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
@@ -6351,7 +6374,7 @@
       <c r="C139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="10" t="s">
+      <c r="D139" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -6364,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>276</v>
       </c>
@@ -6374,7 +6397,7 @@
       <c r="C140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -6387,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>277</v>
       </c>
@@ -6397,7 +6420,7 @@
       <c r="C141" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D141" s="10" t="s">
+      <c r="D141" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -6410,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>278</v>
       </c>
@@ -6420,7 +6443,7 @@
       <c r="C142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -6433,7 +6456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>279</v>
       </c>
@@ -6443,7 +6466,7 @@
       <c r="C143" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="10" t="s">
+      <c r="D143" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -6456,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
@@ -6466,7 +6489,7 @@
       <c r="C144" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D144" s="10" t="s">
+      <c r="D144" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E144" s="1" t="s">
@@ -6479,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>281</v>
       </c>
@@ -6489,7 +6512,7 @@
       <c r="C145" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="10" t="s">
+      <c r="D145" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -6502,7 +6525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>282</v>
       </c>
@@ -6512,7 +6535,7 @@
       <c r="C146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -6525,7 +6548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>283</v>
       </c>
@@ -6535,7 +6558,7 @@
       <c r="C147" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6548,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>284</v>
       </c>
@@ -6558,7 +6581,7 @@
       <c r="C148" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D148" s="10" t="s">
+      <c r="D148" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -6571,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>285</v>
       </c>
@@ -6581,7 +6604,7 @@
       <c r="C149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D149" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E149" s="1" t="s">
@@ -6594,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>287</v>
       </c>
@@ -6604,7 +6627,7 @@
       <c r="C150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E150" s="1" t="s">
@@ -6617,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>289</v>
       </c>
@@ -6627,7 +6650,7 @@
       <c r="C151" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6640,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>291</v>
       </c>
@@ -6650,7 +6673,7 @@
       <c r="C152" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -6663,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>293</v>
       </c>
@@ -6673,7 +6696,7 @@
       <c r="C153" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="10" t="s">
+      <c r="D153" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6686,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>296</v>
       </c>
@@ -6696,7 +6719,7 @@
       <c r="C154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -6709,7 +6732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>298</v>
       </c>
@@ -6732,7 +6755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
@@ -6755,7 +6778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>304</v>
       </c>
@@ -6778,7 +6801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>307</v>
       </c>
@@ -6801,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>310</v>
       </c>
@@ -6824,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>313</v>
       </c>
@@ -6847,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>316</v>
       </c>
@@ -6870,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>319</v>
       </c>
@@ -6893,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
@@ -6916,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -6939,7 +6962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>329</v>
       </c>
@@ -6962,7 +6985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>333</v>
       </c>
@@ -6985,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>335</v>
       </c>
@@ -7008,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>338</v>
       </c>
@@ -7031,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>344</v>
       </c>
@@ -7054,7 +7077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>346</v>
       </c>
@@ -7077,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>349</v>
       </c>
@@ -7100,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>352</v>
       </c>
@@ -7123,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>355</v>
       </c>
@@ -7146,7 +7169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>358</v>
       </c>
@@ -7169,7 +7192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>361</v>
       </c>
@@ -7192,7 +7215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>364</v>
       </c>
@@ -7215,7 +7238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>367</v>
       </c>
@@ -7238,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>370</v>
       </c>
@@ -7261,7 +7284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>372</v>
       </c>
@@ -7284,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>375</v>
       </c>
@@ -7307,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>378</v>
       </c>
@@ -7330,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>381</v>
       </c>
@@ -7353,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>384</v>
       </c>
@@ -7376,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>387</v>
       </c>
@@ -7399,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>390</v>
       </c>
@@ -7422,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>393</v>
       </c>
@@ -7445,7 +7468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>396</v>
       </c>
@@ -7468,7 +7491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>399</v>
       </c>
@@ -7491,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>402</v>
       </c>
@@ -7514,7 +7537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>405</v>
       </c>
@@ -7537,7 +7560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>408</v>
       </c>
@@ -7560,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>411</v>
       </c>
@@ -7583,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>414</v>
       </c>
@@ -7606,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>417</v>
       </c>
@@ -7629,7 +7652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>420</v>
       </c>
@@ -7652,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>423</v>
       </c>
@@ -7675,7 +7698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>426</v>
       </c>
@@ -7698,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>429</v>
       </c>
@@ -7721,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>432</v>
       </c>
@@ -7744,7 +7767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>435</v>
       </c>
@@ -7767,7 +7790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>438</v>
       </c>
@@ -7790,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>441</v>
       </c>
@@ -7813,7 +7836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>444</v>
       </c>
@@ -7836,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>446</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>448</v>
       </c>
@@ -7882,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>450</v>
       </c>
@@ -7905,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>452</v>
       </c>
@@ -7928,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>454</v>
       </c>
@@ -7951,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>456</v>
       </c>
@@ -7974,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>458</v>
       </c>
@@ -7997,7 +8020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>460</v>
       </c>
@@ -8020,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>462</v>
       </c>
@@ -8043,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>464</v>
       </c>
@@ -8066,7 +8089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>466</v>
       </c>
@@ -8089,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>468</v>
       </c>
@@ -8112,7 +8135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>470</v>
       </c>
@@ -8135,7 +8158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>472</v>
       </c>
@@ -8158,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>474</v>
       </c>
@@ -8181,7 +8204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>476</v>
       </c>
@@ -8204,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>478</v>
       </c>
@@ -8227,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>480</v>
       </c>
@@ -8250,7 +8273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>482</v>
       </c>
@@ -8273,7 +8296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>484</v>
       </c>
@@ -8296,7 +8319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>486</v>
       </c>
@@ -8319,7 +8342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>488</v>
       </c>
@@ -8342,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>490</v>
       </c>
@@ -8365,7 +8388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>492</v>
       </c>
@@ -8388,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>494</v>
       </c>
@@ -8411,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>496</v>
       </c>
@@ -8434,7 +8457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>498</v>
       </c>
@@ -8457,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>500</v>
       </c>
@@ -8480,7 +8503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>502</v>
       </c>
@@ -8503,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>504</v>
       </c>
@@ -8526,7 +8549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>506</v>
       </c>
@@ -8549,7 +8572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>508</v>
       </c>
@@ -8572,7 +8595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>510</v>
       </c>
@@ -8595,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>513</v>
       </c>
@@ -8618,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>515</v>
       </c>
@@ -8641,7 +8664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>517</v>
       </c>
@@ -8664,7 +8687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>519</v>
       </c>
@@ -8687,7 +8710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>521</v>
       </c>
@@ -8710,7 +8733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>523</v>
       </c>
@@ -8733,7 +8756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>525</v>
       </c>
@@ -8756,7 +8779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>527</v>
       </c>
@@ -8779,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>529</v>
       </c>
@@ -8802,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>531</v>
       </c>
@@ -8825,7 +8848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>533</v>
       </c>
@@ -8848,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>535</v>
       </c>
@@ -8871,7 +8894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>537</v>
       </c>
@@ -8894,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>539</v>
       </c>
@@ -8917,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>541</v>
       </c>
@@ -8940,7 +8963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>543</v>
       </c>
@@ -8963,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>545</v>
       </c>
@@ -8986,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>547</v>
       </c>
@@ -9009,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>549</v>
       </c>
@@ -9032,7 +9055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>551</v>
       </c>
@@ -9055,7 +9078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>553</v>
       </c>
@@ -9078,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>555</v>
       </c>
@@ -9101,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>557</v>
       </c>
@@ -9124,7 +9147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>559</v>
       </c>
@@ -9147,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>561</v>
       </c>
@@ -9170,7 +9193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>563</v>
       </c>
@@ -9193,7 +9216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>565</v>
       </c>
@@ -9216,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>567</v>
       </c>
@@ -9239,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>569</v>
       </c>
@@ -9262,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>571</v>
       </c>
@@ -9285,7 +9308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>573</v>
       </c>
@@ -9308,7 +9331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>575</v>
       </c>
@@ -9331,7 +9354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>577</v>
       </c>
@@ -9354,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>579</v>
       </c>
@@ -9377,7 +9400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>583</v>
       </c>
@@ -9400,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>586</v>
       </c>
@@ -9423,7 +9446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>589</v>
       </c>
@@ -9446,7 +9469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>592</v>
       </c>
@@ -9469,7 +9492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>595</v>
       </c>
@@ -9492,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>598</v>
       </c>
@@ -9515,7 +9538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>601</v>
       </c>
@@ -9538,7 +9561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>604</v>
       </c>
@@ -9561,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>607</v>
       </c>
@@ -9584,7 +9607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>610</v>
       </c>
@@ -9607,7 +9630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>613</v>
       </c>
@@ -9630,7 +9653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>617</v>
       </c>
@@ -9653,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>620</v>
       </c>
@@ -9676,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>623</v>
       </c>
@@ -9699,7 +9722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>626</v>
       </c>
@@ -9722,7 +9745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>629</v>
       </c>
@@ -9745,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>631</v>
       </c>
@@ -9768,7 +9791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>633</v>
       </c>
@@ -9791,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>635</v>
       </c>
@@ -9814,7 +9837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>637</v>
       </c>
@@ -9837,7 +9860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>639</v>
       </c>
@@ -9860,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>698</v>
       </c>
@@ -9883,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>699</v>
       </c>
@@ -9906,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>700</v>
       </c>
@@ -9929,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>701</v>
       </c>
@@ -9952,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>702</v>
       </c>
@@ -9975,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>703</v>
       </c>
@@ -9998,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>704</v>
       </c>
@@ -10021,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>705</v>
       </c>
@@ -10044,12 +10067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>651</v>
+      <c r="B300" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>652</v>
@@ -10067,12 +10090,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>653</v>
+      <c r="B301" s="10" t="s">
+        <v>732</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>652</v>
@@ -10090,12 +10113,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>654</v>
+      <c r="B302" s="10" t="s">
+        <v>749</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>652</v>
@@ -10113,12 +10136,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>655</v>
+      <c r="B303" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>652</v>
@@ -10136,12 +10159,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>656</v>
+      <c r="B304" s="10" t="s">
+        <v>783</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>652</v>
@@ -10159,12 +10182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>657</v>
+      <c r="B305" s="10" t="s">
+        <v>784</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>652</v>
@@ -10182,12 +10205,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>658</v>
+      <c r="B306" s="10" t="s">
+        <v>838</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>652</v>
@@ -10205,12 +10228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>660</v>
+      <c r="B307" s="10" t="s">
+        <v>839</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>652</v>
@@ -10228,12 +10251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>661</v>
+      <c r="B308" s="10" t="s">
+        <v>871</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>652</v>
@@ -10251,12 +10274,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>663</v>
+      <c r="B309" s="10" t="s">
+        <v>872</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>652</v>
@@ -10274,12 +10297,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>664</v>
+      <c r="B310" s="10" t="s">
+        <v>878</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>652</v>
@@ -10297,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>709</v>
       </c>
@@ -10320,7 +10343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>711</v>
       </c>
@@ -10343,7 +10366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>713</v>
       </c>
@@ -10366,7 +10389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>715</v>
       </c>
@@ -10389,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>717</v>
       </c>
@@ -10412,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>719</v>
       </c>
@@ -10435,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>721</v>
       </c>
@@ -10458,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>723</v>
       </c>
@@ -10481,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>725</v>
       </c>
@@ -10504,7 +10527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>727</v>
       </c>
@@ -10527,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>729</v>
       </c>
@@ -10550,12 +10573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>652</v>
@@ -10567,18 +10590,18 @@
         <v>708</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G322">
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>652</v>
@@ -10590,59 +10613,59 @@
         <v>708</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="G323">
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="G324">
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>341</v>
+        <v>443</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
       <c r="G325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>739</v>
       </c>
@@ -10659,13 +10682,13 @@
         <v>708</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="G326">
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>740</v>
       </c>
@@ -10682,18 +10705,18 @@
         <v>708</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>712</v>
+        <v>741</v>
       </c>
       <c r="G327">
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>652</v>
@@ -10705,18 +10728,18 @@
         <v>708</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="G328">
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>652</v>
@@ -10728,18 +10751,18 @@
         <v>708</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G329">
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>652</v>
@@ -10751,18 +10774,18 @@
         <v>708</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="G330">
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>652</v>
@@ -10774,13 +10797,13 @@
         <v>708</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="G331">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>747</v>
       </c>
@@ -10797,13 +10820,13 @@
         <v>708</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="G332">
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>748</v>
       </c>
@@ -10820,18 +10843,18 @@
         <v>708</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="G333">
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>652</v>
@@ -10843,18 +10866,18 @@
         <v>708</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="G334">
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>652</v>
@@ -10866,110 +10889,110 @@
         <v>708</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="G335">
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="G336">
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
       <c r="G337">
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
       <c r="G338">
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="G339">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>652</v>
@@ -10981,18 +11004,18 @@
         <v>708</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="G340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>652</v>
@@ -11004,18 +11027,18 @@
         <v>708</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="G341">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>652</v>
@@ -11027,18 +11050,18 @@
         <v>708</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="G342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>652</v>
@@ -11050,18 +11073,18 @@
         <v>708</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="G343">
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>652</v>
@@ -11073,18 +11096,18 @@
         <v>708</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="G344">
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>652</v>
@@ -11096,18 +11119,18 @@
         <v>708</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="G345">
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>652</v>
@@ -11119,18 +11142,18 @@
         <v>708</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>718</v>
+        <v>763</v>
       </c>
       <c r="G346">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>652</v>
@@ -11142,18 +11165,18 @@
         <v>708</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="G347">
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>652</v>
@@ -11165,18 +11188,18 @@
         <v>708</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G348">
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>652</v>
@@ -11188,18 +11211,18 @@
         <v>708</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="G349">
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>652</v>
@@ -11211,18 +11234,18 @@
         <v>708</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="G350">
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>652</v>
@@ -11234,18 +11257,18 @@
         <v>708</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="G351">
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>652</v>
@@ -11257,18 +11280,18 @@
         <v>708</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>777</v>
+        <v>730</v>
       </c>
       <c r="G352">
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>652</v>
@@ -11280,18 +11303,18 @@
         <v>708</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>779</v>
+        <v>734</v>
       </c>
       <c r="G353">
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>652</v>
@@ -11303,156 +11326,156 @@
         <v>708</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>781</v>
+        <v>736</v>
       </c>
       <c r="G354">
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="G355">
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="G356">
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>732</v>
+        <v>792</v>
       </c>
       <c r="G357">
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>734</v>
+        <v>794</v>
       </c>
       <c r="G358">
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>736</v>
+        <v>796</v>
       </c>
       <c r="G359">
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>512</v>
+        <v>659</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>738</v>
+        <v>798</v>
       </c>
       <c r="G360">
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>652</v>
@@ -11464,18 +11487,18 @@
         <v>708</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G361">
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>652</v>
@@ -11487,18 +11510,18 @@
         <v>708</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="G362">
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>652</v>
@@ -11510,18 +11533,18 @@
         <v>708</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="G363">
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>652</v>
@@ -11533,18 +11556,18 @@
         <v>708</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="G364">
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>652</v>
@@ -11556,18 +11579,18 @@
         <v>708</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="G365">
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>652</v>
@@ -11579,18 +11602,18 @@
         <v>708</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="G366">
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>652</v>
@@ -11602,18 +11625,18 @@
         <v>708</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="G367">
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>652</v>
@@ -11625,18 +11648,18 @@
         <v>708</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="G368">
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>652</v>
@@ -11648,18 +11671,18 @@
         <v>708</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G369">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>652</v>
@@ -11671,18 +11694,18 @@
         <v>708</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="G370">
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>652</v>
@@ -11694,18 +11717,18 @@
         <v>708</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="G371">
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>652</v>
@@ -11717,18 +11740,18 @@
         <v>708</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="G372">
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>652</v>
@@ -11740,18 +11763,18 @@
         <v>708</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="G373">
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>652</v>
@@ -11763,18 +11786,18 @@
         <v>708</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="G374">
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>652</v>
@@ -11786,18 +11809,18 @@
         <v>708</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>818</v>
+        <v>369</v>
       </c>
       <c r="G375">
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="C376" s="1" t="s">
         <v>652</v>
@@ -11809,18 +11832,18 @@
         <v>708</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>820</v>
+        <v>369</v>
       </c>
       <c r="G376">
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>652</v>
@@ -11832,18 +11855,18 @@
         <v>708</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>822</v>
+        <v>374</v>
       </c>
       <c r="G377">
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>652</v>
@@ -11855,18 +11878,18 @@
         <v>708</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="G378">
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>652</v>
@@ -11878,18 +11901,18 @@
         <v>708</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="G379">
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>652</v>
@@ -11901,18 +11924,18 @@
         <v>708</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>828</v>
+        <v>401</v>
       </c>
       <c r="G380">
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>652</v>
@@ -11924,18 +11947,18 @@
         <v>708</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="G381">
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>652</v>
@@ -11947,18 +11970,18 @@
         <v>708</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="G382">
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>652</v>
@@ -11970,18 +11993,18 @@
         <v>708</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="G383">
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>652</v>
@@ -11993,18 +12016,18 @@
         <v>708</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>833</v>
+        <v>734</v>
       </c>
       <c r="G384">
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>652</v>
@@ -12016,202 +12039,202 @@
         <v>708</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>835</v>
+        <v>736</v>
       </c>
       <c r="G385">
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>401</v>
+        <v>788</v>
       </c>
       <c r="G386">
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>404</v>
+        <v>790</v>
       </c>
       <c r="G387">
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>407</v>
+        <v>792</v>
       </c>
       <c r="G388">
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>410</v>
+        <v>794</v>
       </c>
       <c r="G389">
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C390" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>732</v>
+        <v>796</v>
       </c>
       <c r="G390">
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>734</v>
+        <v>798</v>
       </c>
       <c r="G391">
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>736</v>
+        <v>800</v>
       </c>
       <c r="G392">
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>708</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>738</v>
+        <v>802</v>
       </c>
       <c r="G393">
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>652</v>
@@ -12223,18 +12246,18 @@
         <v>708</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="G394">
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C395" s="1" t="s">
         <v>652</v>
@@ -12246,18 +12269,18 @@
         <v>708</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="G395">
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>652</v>
@@ -12269,18 +12292,18 @@
         <v>708</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="G396">
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C397" s="1" t="s">
         <v>652</v>
@@ -12292,18 +12315,18 @@
         <v>708</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="G397">
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>652</v>
@@ -12315,18 +12338,18 @@
         <v>708</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="G398">
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C399" s="1" t="s">
         <v>652</v>
@@ -12338,18 +12361,18 @@
         <v>708</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="G399">
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="C400" s="1" t="s">
         <v>652</v>
@@ -12361,18 +12384,18 @@
         <v>708</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="G400">
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C401" s="1" t="s">
         <v>652</v>
@@ -12384,18 +12407,18 @@
         <v>708</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="G401">
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>652</v>
@@ -12407,18 +12430,18 @@
         <v>708</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="G402">
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>652</v>
@@ -12430,18 +12453,18 @@
         <v>708</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="G403">
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>652</v>
@@ -12453,18 +12476,18 @@
         <v>708</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="G404">
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>652</v>
@@ -12476,18 +12499,18 @@
         <v>708</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="G405">
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>652</v>
@@ -12499,18 +12522,18 @@
         <v>708</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>814</v>
+        <v>369</v>
       </c>
       <c r="G406">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>652</v>
@@ -12522,18 +12545,18 @@
         <v>708</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>816</v>
+        <v>369</v>
       </c>
       <c r="G407">
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>652</v>
@@ -12545,18 +12568,18 @@
         <v>708</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>818</v>
+        <v>374</v>
       </c>
       <c r="G408">
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="C409" s="1" t="s">
         <v>652</v>
@@ -12568,18 +12591,18 @@
         <v>708</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="G409">
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C410" s="1" t="s">
         <v>652</v>
@@ -12591,18 +12614,18 @@
         <v>708</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
       <c r="G410">
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>652</v>
@@ -12614,18 +12637,18 @@
         <v>708</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>824</v>
+        <v>401</v>
       </c>
       <c r="G411">
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>652</v>
@@ -12637,18 +12660,18 @@
         <v>708</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>826</v>
+        <v>404</v>
       </c>
       <c r="G412">
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>652</v>
@@ -12660,18 +12683,18 @@
         <v>708</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>828</v>
+        <v>407</v>
       </c>
       <c r="G413">
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>652</v>
@@ -12683,18 +12706,18 @@
         <v>708</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="G414">
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>652</v>
@@ -12706,18 +12729,18 @@
         <v>708</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>369</v>
+        <v>734</v>
       </c>
       <c r="G415">
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>652</v>
@@ -12729,622 +12752,369 @@
         <v>708</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>374</v>
+        <v>736</v>
       </c>
       <c r="G416">
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>662</v>
+        <v>885</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>708</v>
+        <v>875</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>833</v>
+        <v>877</v>
       </c>
       <c r="G417">
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>652</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>662</v>
+        <v>886</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>708</v>
+        <v>879</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>835</v>
+        <v>881</v>
       </c>
       <c r="G418">
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="B419" s="1" t="s">
-        <v>869</v>
+        <v>641</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>891</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>662</v>
+        <v>341</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>401</v>
+        <v>643</v>
       </c>
       <c r="G419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="B420" s="1" t="s">
-        <v>870</v>
+        <v>644</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>892</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>662</v>
+        <v>341</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>404</v>
+        <v>645</v>
       </c>
       <c r="G420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B421" s="1" t="s">
-        <v>871</v>
+        <v>646</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>893</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>662</v>
+        <v>341</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>407</v>
+        <v>647</v>
       </c>
       <c r="G421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B422" s="1" t="s">
-        <v>872</v>
+        <v>648</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>894</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>662</v>
+        <v>443</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>410</v>
+        <v>643</v>
       </c>
       <c r="G422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B423" s="1" t="s">
-        <v>873</v>
+        <v>649</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>895</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>662</v>
+        <v>443</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>732</v>
+        <v>645</v>
       </c>
       <c r="G423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>874</v>
+        <v>650</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>896</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>662</v>
+        <v>443</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="G424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D425" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E425" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F425" s="1" t="s">
-        <v>736</v>
+        <v>666</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>667</v>
       </c>
       <c r="G425">
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D426" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E426" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="F426" s="1" t="s">
-        <v>738</v>
+        <v>668</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>669</v>
       </c>
       <c r="G426">
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D427" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E427" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="F427" s="1" t="s">
-        <v>879</v>
+        <v>670</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="G427">
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D428" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="E428" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="F428" s="1" t="s">
-        <v>881</v>
+        <v>672</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="G428">
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D429" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="E429" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="F429" s="1" t="s">
-        <v>884</v>
+        <v>674</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>675</v>
       </c>
       <c r="G429">
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E430" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F430" s="1" t="s">
-        <v>643</v>
+        <v>676</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="G430">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D431" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E431" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F431" s="1" t="s">
-        <v>645</v>
+        <v>678</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>679</v>
       </c>
       <c r="G431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C432" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>647</v>
+        <v>680</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>681</v>
       </c>
       <c r="G432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D433" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E433" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F433" s="1" t="s">
-        <v>643</v>
+        <v>682</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>683</v>
       </c>
       <c r="G433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D434" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E434" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F434" s="1" t="s">
-        <v>645</v>
+        <v>684</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>685</v>
       </c>
       <c r="G434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D435" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="E435" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F435" s="1" t="s">
-        <v>647</v>
+        <v>686</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="G435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
       <c r="G436">
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
       <c r="G437">
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
       <c r="G438">
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="G439">
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="G440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A441" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="G441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A442" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A443" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B443" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A444" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B444" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="G444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A446" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="G446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A447" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="G447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A448" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="G448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="G450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="B451" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G451">
         <v>0</v>
       </c>
     </row>
